--- a/datacnn.xlsx
+++ b/datacnn.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Console_application\digit_recognizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GradeFour\FPGA-1\project\3layerCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CCE46-F495-449F-95CD-58F834B71E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85DF73F-4C43-4648-A2D6-8407C68FBEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>conv_bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>conv_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111/11111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位2位5位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ABE30"/>
+  <dimension ref="A1:ABE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:733" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:733" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-0.42202663000000001</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>-0.65662277000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C3">
         <v>0.16296405</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>-0.86165499999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C4">
         <v>0.39591229999999999</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>0.16175972999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C5">
         <v>0.58914290000000002</v>
       </c>
@@ -9144,7 +9152,7 @@
         <v>-0.73234779999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C6">
         <v>-8.0513200000000007E-3</v>
       </c>
@@ -11327,7 +11335,7 @@
         <v>-0.2224806</v>
       </c>
     </row>
-    <row r="7" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13498,7 +13506,7 @@
         <v>-5.4378137E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:733" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.42064267</v>
       </c>
@@ -15684,7 +15692,7 @@
         <v>-0.38096410000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>0.28165816999999999</v>
       </c>
@@ -17867,7 +17875,7 @@
         <v>-0.46311893999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>0.39083403</v>
       </c>
@@ -20050,7 +20058,7 @@
         <v>0.47534794000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C11">
         <v>0.42714806999999999</v>
       </c>
@@ -22233,7 +22241,7 @@
         <v>0.49027463999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C12">
         <v>-4.8133670000000003E-2</v>
       </c>
@@ -22250,12 +22258,12 @@
         <v>-0.76507263999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:733" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>-0.43013978000000003</v>
       </c>
@@ -22275,7 +22283,7 @@
         <v>-4.1377890000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C15">
         <v>0.18412690000000001</v>
       </c>
@@ -22292,7 +22300,7 @@
         <v>0.6029525</v>
       </c>
     </row>
-    <row r="16" spans="1:733" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:733" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>0.4287086</v>
       </c>
@@ -22309,7 +22317,7 @@
         <v>0.33877580000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>0.18664747000000001</v>
       </c>
@@ -22326,7 +22334,7 @@
         <v>-0.43778192999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>-0.25281206000000001</v>
       </c>
@@ -22343,12 +22351,12 @@
         <v>-0.88477545999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>-0.22955649</v>
       </c>
@@ -22368,7 +22376,7 @@
         <v>-1.5682855</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>0.57392436000000002</v>
       </c>
@@ -22385,7 +22393,7 @@
         <v>0.25606390000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>0.68267429999999996</v>
       </c>
@@ -22402,7 +22410,7 @@
         <v>1.3682764000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C23">
         <v>6.1701400000000002E-3</v>
       </c>
@@ -22419,7 +22427,7 @@
         <v>0.48057594999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C24">
         <v>-5.5893850000000002E-2</v>
       </c>
@@ -22436,12 +22444,12 @@
         <v>-1.3303682999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>-0.18630916</v>
       </c>
@@ -22461,7 +22469,7 @@
         <v>-1.8163266</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C27">
         <v>0.64184110000000005</v>
       </c>
@@ -22478,7 +22486,7 @@
         <v>-5.7748430000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C28">
         <v>9.4513040000000006E-2</v>
       </c>
@@ -22495,7 +22503,7 @@
         <v>1.1944927000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C29">
         <v>-0.30596378000000002</v>
       </c>
@@ -22512,7 +22520,7 @@
         <v>0.72558</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>-0.29733710000000002</v>
       </c>
@@ -22527,6 +22535,14 @@
       </c>
       <c r="G30">
         <v>-0.68761229999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/datacnn.xlsx
+++ b/datacnn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GradeFour\FPGA-1\project\3layerCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85DF73F-4C43-4648-A2D6-8407C68FBEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A750A-60B1-44EC-BB12-B1641E1E109A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:ABE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
